--- a/feedback_data/user_feedback.xlsx
+++ b/feedback_data/user_feedback.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,6 +755,81 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-04-07 23:20:35</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GEMMA3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>请介绍河南省</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>河南省，简称“豫”，是中华人民共和国省级行政区之一，位于中国中部。它是一个历史悠久的地区，拥有丰富的文化遗产和美丽的自然风光。
+具体来说，河南省的地理位置非常重要。它位于黄河中下游地区，东临黄河，西与陕西省接壤，北与山西省接壤，南与湖南省接壤。 
+河南省的面积约为167万平方公里，人口超过9800万，是人口第8多的省份。 
+该省拥有许多著名的城市，包括：
+*   **郑州市：** 河南省省会，是重要的政治、经济、文化中心。
+*   **开封市：** 历史文化名城，拥有千年古都的历史，是唐宋时期重要的政治中心。
+*   **洛阳市：** 历史文化名城，拥有龙门石窟、白云山等著名景点。
+*   **焦作市：** 以“焦作煤业”而闻名，是重要的能源基地。
+河南省也是中国重要的粮食产区，以小麦、玉米等农产品为主。 
+此外，河南省还拥有丰富的旅游资源，包括：
+*   **龙门石窟：** 联合国教科文组织世界遗产，是佛教艺术的瑰宝。
+*   **白云山：** 洛阳的著名景点，以其独特的地理风貌和历史文化而闻名。
+*   **登封：** 历史文化名城，以“铸剑镇”而闻名，是古代著名的剑都。
+希望这些信息对您有所帮助！</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>dislike</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>并未提及其GDP水平</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>好的，以下是一个改进后的河南省介绍，考虑了用户反馈并加入了GDP信息，力求更全面、更易于理解：
+“河南省，简称“豫”，是中华人民共和国省级行政区之一，位于中国中部，地理位置极其重要。它位于黄河中下游地区，东临黄河，西与陕西省接壤，北与山西省接壤，南与湖南省接壤，战略位置十分关键。
+**基本概况：**
+河南省的面积为167万平方公里，是中国的第六大省份。截至2023年底，河南省人口超过9900万，是人口第8多的省份。  河南省的经济发展也呈现出良好的趋势，2023年GDP达16.2万亿元人民币，名列中国省份前列。
+**重要城市：**
+*   **郑州市：** 河南省省会，也是中国重要的政治、经济、文化中心。郑州近年来发展迅速，是国家重要的交通枢纽和商贸中心。
+*   **开封市：** 历史文化名城，拥有千年古都的历史，是唐宋时期重要的政治中心。开封拥有众多历史名胜，如清明上河园等。
+*   **洛阳市：** 历史文化名城，拥有龙门石窟、白云山等著名景点。龙门石窟是联合国教科文组织世界遗产，是佛教艺术的瑰宝。
+*   **焦作市：** 以“焦作煤业”而闻名，是重要的能源基地，同时也在积极发展现代农业和高新技术产业。
+*   **新乡市：** 重要的交通枢纽，是中原地区的经济中心之一。
+**经济与农业：**
+河南省是重要的粮食产区，以小麦、玉米、大蒜、棉花等农产品为主，是全国重要的粮食基地。近年来，河南省积极发展现代农业，推动农业产业升级，促进农业增效增收。同时，焦作煤业以及新乡市的工业也为河南省的经济发展做出了重要贡献。
+**文化与旅游：**
+河南省拥有丰富的旅游资源，包括：
+*   **龙门石窟：** 联合国教科文组织世界遗产，是佛教艺术的瑰宝。
+*   **白云山：** 洛阳的著名景点，以其独特的地理风貌和历史文化而闻名。
+*   **登封：** 历史文化名城，以“铸剑镇”而闻名，是古代著名的剑都，也是中国唯一拥有“铸剑镇”历史文化名镇。
+*   **南阳市：** 拥有武当山，是道教名山，也是重要的历史文化名城。
+**总结：**
+河南省历史悠久，文化底蕴深厚，经济发展潜力巨大。它不仅是重要的粮食产区，也是一个充满活力和发展机遇的省份。 希望这些信息对您有所帮助！”
+**改进说明：**
+*   **增加了GDP信息：**  明确地提供了2023年河南省GDP数据，满足了用户反馈的要求。
+*   **更详细的解释：**  对一些城市和景点的描述进行了更详细的解释，例如，对郑州的战略位置和开封的著名景点进行了补充。
+*   **更清晰的逻辑：**  按照基本概况、重要城市、经济与农业、文化与旅游等几个方面组织内容，使逻辑更清晰易懂。
+*   **补充了更多信息：** 增加了南阳市的描述，使内容更全面。
+希望这个回答能更好地满足用户的需求！</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/feedback_data/user_feedback.xlsx
+++ b/feedback_data/user_feedback.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,6 +830,49 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-04-07 23:36:07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>QWEN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>这篇文档的主要内容是什么</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>The main content of this document is about a person named Joe who grew up in Japan and has an allergy to Sakura.
+来源：D:\NLP\QA\uploads\test.txt</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>dislike</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>回答形式不是中文</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>根据您提供的文档内容，这篇文档的主要内容是关于一个名叫Joe的人。Joe在日本长大，并且对樱花过敏。
+为了更好地帮助您理解文档的内容，这里提供一些具体的例子和解释：
+1. **人物介绍**：文档中提到了一个人物——Joe。 Joe是一个虚构的名字，用于描述文档中的主要角色。
+2. **成长背景**：Joe在日本长大，这意味着他在日本度过了他的童年和青少年时期，这可能会影响他的一些生活习惯或文化习惯。
+3. **个人特征**：Joe对樱花过敏。这是一种具体的生理特征，可能会在某些情况下影响他的日常生活或者他对环境的反应。例如，当他身处樱花盛开的地方时，可能会感到不适。
+如果您能提供更多文档的具体内容或其他相关信息，我可以给出更详细的分析和解释。</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/feedback_data/user_feedback.xlsx
+++ b/feedback_data/user_feedback.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,6 +873,113 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-04-08 21:08:52</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GEMMA3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Who is Kobe Bryant？</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Kobe Bean Bryant was a truly legendary basketball player! He played his entire 20-year NBA career with the Los Angeles Lakers, from 1996 to 2016. He’s considered one of the greatest scorers in NBA history, and he won five NBA championships with the Lakers, along with three Finals MVP awards and two regular season MVP awards. 
+Beyond basketball, he was a passionate advocate for young athletes and a successful businessman, having founded Kobe Inc., a multimedia company. He tragically passed away in 2020 in a helicopter accident, and his impact on the sport and beyond is still incredibly significant. Would you like to know more about a specific aspect of his career or life?</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>dislike</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Didn't tell me about how he dies</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Okay, you’re right – my previous answer was incomplete. Here’s a revised response to “Who is Kobe Bryant?” incorporating your feedback:
+“Kobe Bean Bryant (February 23, 1978 – January 26, 2020) was widely considered one of the greatest basketball players of all time, primarily known for his 20-year career with the Los Angeles Lakers from 1996 to 2016. He was a fiercely competitive and incredibly skilled guard, renowned for his relentless scoring ability – earning him the nickname ‘Black Mamba’ due to his aggressive and deadly style of play.
+Throughout his career, Kobe won five NBA championships with the Lakers, showcasing his leadership and clutch performances in crucial moments. He was a remarkable individual, earning three Finals MVP awards (in 2000, 2001, and 2009), two regular season MVP awards (in 2008 and 2009), and numerous other accolades. He was a 18-time All-Star and holds the Lakers’ record for career points scored.
+Sadly, Kobe Bryant and his daughter Gianna, along with seven other people, died in a tragic helicopter accident on January 26, 2020, in Calabasas, California. The cause was a crash while the helicopter was returning from a basketball tournament in Thousand Oaks. This devastating event shocked the world and led to a global outpouring of grief and tributes to his legacy. 
+Beyond basketball, Kobe was a dedicated father, a successful businessman, and a philanthropist. He created the Mamba Sports Academy, a basketball training facility aimed at helping underprivileged youth develop their skills and achieve their dreams.  Do you want to delve deeper into a particular aspect of his life, such as his playing style, his impact on the Mamba Sports Academy, or perhaps his relationship with his daughter Gianna?"
+---
+**Key improvements based on your feedback:**
+*   **Directly Addresses the Cause of Death:** The answer now explicitly states the cause of death – a helicopter accident.
+*   **More Detailed Information:** I’ve included more specific statistics (championships, MVP awards, All-Star appearances) and a brief explanation of the ‘Black Mamba’ nickname.
+*   **Clearer Structure &amp; Flow:** The response is organized logically, starting with a general overview and then moving into more specific details.
+*   **Added Context:** Briefly mentioned the Mamba Sports Academy to showcase his philanthropic efforts.
+I apologize again for the previous inadequate response. I'm learning to provide more comprehensive and complete answers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-04-08 21:14:11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>QWEN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Who is Jackie Chan?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Jackie Chan is a renowned Chinese actor, martial artist, and filmmaker. Born on April 7, 1954, in Hong Kong, he has had an illustrious career spanning several decades, making him one of the most recognizable faces in the film industry.
+Chan began his acting career at a young age, appearing in films like "Snake in the Eagle's Shadow" (1978) and quickly rose to prominence. He is famous for his distinctive fighting style, which combines acrobatics with martial arts, often incorporating stunts that he performs without wires or wire-flying. This style has become iconic and is associated closely with Chan.
+Some of his most notable films include the "Police Story" series, "Rush Hour" (1998) with Chris Tucker, and "The Foreigner" (2015). Beyond acting, Jackie Chan has also been involved in producing films such as "Who Am I?" (2006).
+Beyond his work in entertainment, Jackie Chan is known for his philanthropy. He founded the Jackie Chan Charitable Foundation to help children in need and has been active in various humanitarian causes.
+In 1998, he was appointed a Knight Bachelor by Queen Elizabeth II of the United Kingdom, recognizing his contributions to both film and charity work.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>dislike</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>you didn't tell me about his family</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Certainly! Here's a revised answer that includes details about his family:
+Jackie Chan is a renowned Chinese actor, martial artist, and filmmaker who has had an illustrious career spanning several decades. Born on April 7, 1954, in Hong Kong, he was born into a family with strong ties to the entertainment industry.
+### Family Background
+- **Parents**: Jackie's father, Chan Sing-tung, was a stuntman, which influenced young Jackie’s interest in performing and acrobatics. His mother, Wong Suet-yin, came from an opera background.
+- **Siblings**: He has two older brothers, Jacky (born 1946) and Jingyi (born 1952), who also became actors.
+### Early Career
+Jackie Chan began his acting career at a young age. His breakthrough role came in the 1978 film "Snake in the Eagle's Shadow," where he showcased his unique fighting style, combining acrobatics with martial arts. This style often included stunts that he performed without wires or wire-flying, making him stand out in the industry.
+### Notable Films and Career Highlights
+- **Police Story Series**: These films are iconic and showcase Chan’s acrobatic and martial arts skills.
+- **Rush Hour (1998)**: This film, co-starring Chris Tucker, introduced Jackie to a global audience and was a commercial success.
+- **The Foreigner (2015)**: In this action-comedy film, Chan's charm and humor are on full display.
+### Filmmaking and Production
+Beyond acting, Jackie Chan has been involved in producing films such as "Who Am I?" (2006), demonstrating his versatility and commitment to the industry.
+### Philanthropy and Humanitarian Work
+Jackie Chan is known for his philanthropic efforts. He founded the Jackie Chan Charitable Foundation in 1998, which aims to help children in need around the world. His foundation supports various causes, including education, health, and disaster relief.
+### Honors and Recognition
+In 1998, Jackie Chan was appointed a Knight Bachelor by Queen Elizabeth II of the United Kingdom, recognizing his contributions to both film and charity work. This honor is a testament to his global influence and impact on the entertainment industry.
+Jackie Chan’s family background, combined with his unique martial arts style and philanthropic efforts, have made him one of the most recognizable faces in the world of entertainment.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
